--- a/biology/Zoologie/Corail_de_feu_en_plaques/Corail_de_feu_en_plaques.xlsx
+++ b/biology/Zoologie/Corail_de_feu_en_plaques/Corail_de_feu_en_plaques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Millepora platyphylla
 Le corail de feu en plaques (Millepora platyphylla) est une espèce d'hydrozoaire urticant de la famille des Milleporidae.
@@ -512,10 +524,12 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un corail de feu typique (à ne pas confondre avec les « vrais » coraux sclerctiniaires), formant des colonies massives de 2 à 3 m de longueur, composées de plaques verticales anastomosées plus ou moins régulières, pouvant atteindre 2 m de hauteur chez une colonie mature. La couleur est généralement brun clair, avec des arêtes blanches[2].
-Comme tous les coraux de feu, cette espèce est urticante, et son simple contact avec la peau provoque de vives brûlures[2], car il y dépose une enveloppe toxique[3]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un corail de feu typique (à ne pas confondre avec les « vrais » coraux sclerctiniaires), formant des colonies massives de 2 à 3 m de longueur, composées de plaques verticales anastomosées plus ou moins régulières, pouvant atteindre 2 m de hauteur chez une colonie mature. La couleur est généralement brun clair, avec des arêtes blanches.
+Comme tous les coraux de feu, cette espèce est urticante, et son simple contact avec la peau provoque de vives brûlures, car il y dépose une enveloppe toxique
 			A La Réunion.
 			A Guam
 			En Mer Rouge
@@ -547,10 +561,12 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce corail habites les eaux tropicales de l'Indo-Pacifique, de la Mer Rouge aux Marquises et du Japon à l'Australie[2].
-On le rencontre entre la surface et environ 6 m de profondeur[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce corail habites les eaux tropicales de l'Indo-Pacifique, de la Mer Rouge aux Marquises et du Japon à l'Australie.
+On le rencontre entre la surface et environ 6 m de profondeur.
 </t>
         </is>
       </c>
